--- a/templates/dataplant/2EXT02_Protein.xlsx
+++ b/templates/dataplant/2EXT02_Protein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD749DBF-581D-4FFD-A428-98D07E2050E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC591C7B-00BB-4975-B58E-E57AA438DE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D96B17D5-C151-43C3-BAD3-4849955C8A0B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=cf1fb06f-d72e-43d9-be25-4ea6c25f03e2</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{650A8E73-B09A-4468-8B5E-434B1E5CBF22}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{9EFB4416-76DE-4F9B-BE76-DB1A07784981}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{9E47D0CB-28CF-4A53-BAAD-66A7A55891FE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{482F971C-321B-4380-90D6-2D75504F7203}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{160E8AAF-AA26-468E-8604-88E492FFBEE7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{EC7C07A8-692D-4EF9-BB2D-5414E1C636F8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{CC85325B-88F1-4C0C-94EA-36B72C89CEEE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{52217483-D366-44CD-A8ED-50284EBE7D86}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
   <si>
     <t>Source Name</t>
   </si>
@@ -478,12 +478,6 @@
     <t>Term Accession Number ()</t>
   </si>
   <si>
-    <t>Term Source REF ()2</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()2</t>
-  </si>
-  <si>
     <t>Term Source REF ()3</t>
   </si>
   <si>
@@ -544,9 +538,6 @@
     <t>http://purl.obolibrary.org/obo/MS_1000049</t>
   </si>
   <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
     <t>DataPLANT</t>
   </si>
   <si>
@@ -560,6 +551,18 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>Parameter [extraction buffer]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000050)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000050)</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -721,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,11 +763,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;pH&quot;"/>
     </dxf>
@@ -805,11 +815,11 @@
     <tableColumn id="12" xr3:uid="{9CA06C7C-058F-4B37-AC7A-12B3E4C63A5B}" name="Parameter [staining]"/>
     <tableColumn id="13" xr3:uid="{BDF38729-6075-4DDC-92EC-18B22F924A5B}" name="Term Source REF ()"/>
     <tableColumn id="14" xr3:uid="{4C48CDEB-E2A1-4229-B3BA-5B9AF1B61DC0}" name="Term Accession Number ()"/>
-    <tableColumn id="15" xr3:uid="{687A99E7-B6DD-4483-B15C-FB80607A1F17}" name="Parameter [buffer]"/>
-    <tableColumn id="16" xr3:uid="{278B5C07-179F-4E97-8082-8112D4A45914}" name="Term Source REF ()2"/>
-    <tableColumn id="17" xr3:uid="{B51035F5-F3D6-48CC-BE83-F5A375E2289B}" name="Term Accession Number ()2"/>
+    <tableColumn id="22" xr3:uid="{A4D903B4-51B3-4426-B177-F00F2C25027C}" name="Parameter [extraction buffer]"/>
+    <tableColumn id="23" xr3:uid="{61C1498E-2253-4CED-81A0-CC5AFEF4F5FA}" name="Term Source REF (DPBO:0000050)" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{55D5CDBD-1BC8-4DEA-81C8-12338B1FB673}" name="Term Accession Number (DPBO:0000050)" dataDxfId="0"/>
     <tableColumn id="18" xr3:uid="{A76F4D4C-FBEC-4E1F-ABF1-313BBB6F55B7}" name="Parameter [pH]"/>
-    <tableColumn id="21" xr3:uid="{78B7D35C-7FA9-4BC4-BECD-4CD211088C0D}" name="Unit" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{78B7D35C-7FA9-4BC4-BECD-4CD211088C0D}" name="Unit" dataDxfId="2"/>
     <tableColumn id="19" xr3:uid="{8374D543-1198-4666-AE2A-72A23EA25666}" name="Term Source REF (UO:0000196)"/>
     <tableColumn id="20" xr3:uid="{411E97BD-0DF1-4D92-93D9-DDDF6560A10A}" name="Term Accession Number (UO:0000196)"/>
     <tableColumn id="30" xr3:uid="{BFA58742-E29B-43B4-B11E-3F4279DFD76B}" name="Parameter [sample pre-fractionation]"/>
@@ -1122,7 +1132,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="667" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="547" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="678" row="2">
@@ -1155,26 +1165,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.85546875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.140625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="30.5703125" hidden="1" customWidth="1"/>
@@ -1183,9 +1195,12 @@
     <col min="22" max="22" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="37.5703125" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1229,13 +1244,13 @@
         <v>115</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="Q1" t="s">
         <v>13</v>
@@ -1262,10 +1277,10 @@
         <v>20</v>
       </c>
       <c r="Y1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA1" t="s">
         <v>1</v>
@@ -1279,7 +1294,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
         <v>99</v>
@@ -1288,7 +1303,7 @@
         <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
         <v>105</v>
@@ -1297,25 +1312,25 @@
         <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
         <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="O2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" t="s">
-        <v>125</v>
+      <c r="O2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="R2" s="1"/>
     </row>
@@ -1327,7 +1342,7 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>100</v>
@@ -1336,7 +1351,7 @@
         <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
         <v>106</v>
@@ -1345,16 +1360,23 @@
         <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
         <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="R3" s="1"/>
     </row>
@@ -1366,7 +1388,7 @@
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
@@ -1375,7 +1397,7 @@
         <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
         <v>107</v>
@@ -1384,7 +1406,14 @@
         <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="R4" s="1"/>
     </row>
@@ -1396,7 +1425,7 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>102</v>
@@ -1405,7 +1434,7 @@
         <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
         <v>108</v>
@@ -1414,7 +1443,14 @@
         <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="R5" s="1"/>
     </row>
@@ -1426,7 +1462,7 @@
         <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>103</v>
@@ -1435,7 +1471,7 @@
         <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
         <v>109</v>
@@ -1444,7 +1480,14 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="R6" s="1"/>
     </row>
@@ -1453,10 +1496,10 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -1465,7 +1508,7 @@
         <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
         <v>110</v>
@@ -1474,11 +1517,19 @@
         <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="R7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -1491,11 +1542,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8F898E-70F9-4443-B417-1E256527228F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -1522,7 +1573,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1538,7 +1589,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,28 +1734,28 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1719,9 +1770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>

--- a/templates/dataplant/2EXT02_Protein.xlsx
+++ b/templates/dataplant/2EXT02_Protein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC591C7B-00BB-4975-B58E-E57AA438DE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DDD09C-4B42-4475-8299-3B5940B70309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
   <si>
     <t>Source Name</t>
   </si>
@@ -770,13 +770,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;pH&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;pH&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,10 +816,10 @@
     <tableColumn id="13" xr3:uid="{BDF38729-6075-4DDC-92EC-18B22F924A5B}" name="Term Source REF ()"/>
     <tableColumn id="14" xr3:uid="{4C48CDEB-E2A1-4229-B3BA-5B9AF1B61DC0}" name="Term Accession Number ()"/>
     <tableColumn id="22" xr3:uid="{A4D903B4-51B3-4426-B177-F00F2C25027C}" name="Parameter [extraction buffer]"/>
-    <tableColumn id="23" xr3:uid="{61C1498E-2253-4CED-81A0-CC5AFEF4F5FA}" name="Term Source REF (DPBO:0000050)" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{55D5CDBD-1BC8-4DEA-81C8-12338B1FB673}" name="Term Accession Number (DPBO:0000050)" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{61C1498E-2253-4CED-81A0-CC5AFEF4F5FA}" name="Term Source REF (DPBO:0000050)" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{55D5CDBD-1BC8-4DEA-81C8-12338B1FB673}" name="Term Accession Number (DPBO:0000050)" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{A76F4D4C-FBEC-4E1F-ABF1-313BBB6F55B7}" name="Parameter [pH]"/>
-    <tableColumn id="21" xr3:uid="{78B7D35C-7FA9-4BC4-BECD-4CD211088C0D}" name="Unit" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{78B7D35C-7FA9-4BC4-BECD-4CD211088C0D}" name="Unit" dataDxfId="0"/>
     <tableColumn id="19" xr3:uid="{8374D543-1198-4666-AE2A-72A23EA25666}" name="Term Source REF (UO:0000196)"/>
     <tableColumn id="20" xr3:uid="{411E97BD-0DF1-4D92-93D9-DDDF6560A10A}" name="Term Accession Number (UO:0000196)"/>
     <tableColumn id="30" xr3:uid="{BFA58742-E29B-43B4-B11E-3F4279DFD76B}" name="Parameter [sample pre-fractionation]"/>
@@ -1165,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1540,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8F898E-70F9-4443-B417-1E256527228F}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,7 +1552,7 @@
     <col min="2" max="2" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1600,13 +1600,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1614,25 +1614,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1645,30 +1645,35 @@
       <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>

--- a/templates/dataplant/2EXT02_Protein.xlsx
+++ b/templates/dataplant/2EXT02_Protein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DDD09C-4B42-4475-8299-3B5940B70309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEB7C1-9709-4F16-9591-5B3FF8ED1FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="150">
   <si>
     <t>Source Name</t>
   </si>
@@ -277,9 +277,6 @@
     <t>PRIDE</t>
   </si>
   <si>
-    <t>Extraction</t>
-  </si>
-  <si>
     <t>Protein</t>
   </si>
   <si>
@@ -563,6 +560,24 @@
   </si>
   <si>
     <t>1.1.7</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
+  </si>
+  <si>
+    <t>DPBO</t>
   </si>
 </sst>
 </file>
@@ -572,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;pH&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +605,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -721,10 +744,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,8 +788,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1169,41 +1197,41 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="37.5546875" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="27.85546875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.88671875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="27.88671875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,19 +1266,19 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" t="s">
-        <v>115</v>
-      </c>
       <c r="N1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>142</v>
-      </c>
-      <c r="P1" t="s">
-        <v>143</v>
       </c>
       <c r="Q1" t="s">
         <v>13</v>
@@ -1277,254 +1305,254 @@
         <v>20</v>
       </c>
       <c r="Y1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="s">
         <v>116</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>117</v>
       </c>
       <c r="AA1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
         <v>124</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>105</v>
       </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
         <v>130</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>111</v>
       </c>
-      <c r="L2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" t="s">
-        <v>112</v>
-      </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -1543,16 +1571,16 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1568,15 +1596,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1584,15 +1612,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1600,13 +1628,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1614,160 +1642,179 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{3100772C-B8C1-492D-979E-07B92419CCEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1779,72 +1826,72 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1854,243 +1901,243 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2100,7 +2147,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/2EXT02_Protein.xlsx
+++ b/templates/dataplant/2EXT02_Protein.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEB7C1-9709-4F16-9591-5B3FF8ED1FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3240A1-78B0-48B7-A2A1-3B10D4DD358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
     <sheet name="PRIDE_PROTEOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="147">
   <si>
     <t>Source Name</t>
   </si>
@@ -274,9 +274,6 @@
     <t>annotationTableHeavyHusky91</t>
   </si>
   <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
     <t>Protein</t>
   </si>
   <si>
@@ -572,12 +569,6 @@
   </si>
   <si>
     <t>NCIT</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
   </si>
 </sst>
 </file>
@@ -1266,19 +1257,19 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
-        <v>114</v>
-      </c>
       <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
         <v>140</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>141</v>
-      </c>
-      <c r="P1" t="s">
-        <v>142</v>
       </c>
       <c r="Q1" t="s">
         <v>13</v>
@@ -1305,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="Y1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" t="s">
         <v>115</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>116</v>
       </c>
       <c r="AA1" t="s">
         <v>1</v>
@@ -1316,243 +1307,243 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -1571,7 +1562,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1601,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1617,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,25 +1629,19 @@
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1669,47 +1654,41 @@
         <v>32</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1722,10 +1701,10 @@
         <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1733,10 +1712,10 @@
         <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1783,28 +1762,28 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1844,40 +1823,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1885,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1901,7 +1880,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1909,25 +1888,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1935,27 +1914,27 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1963,27 +1942,27 @@
         <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1991,27 +1970,27 @@
         <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2019,27 +1998,27 @@
         <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2047,27 +2026,27 @@
         <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2075,27 +2054,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2103,27 +2082,27 @@
         <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2131,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2147,7 +2126,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/2EXT02_Protein.xlsx
+++ b/templates/dataplant/2EXT02_Protein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3240A1-78B0-48B7-A2A1-3B10D4DD358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E2983E-B2F4-48D2-82E4-2C200DDA5544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT02_Protein" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="147">
   <si>
     <t>Source Name</t>
   </si>
@@ -562,13 +562,13 @@
     <t>extraction</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t>OBI:0302884</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;pH&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,14 +596,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,11 +727,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,12 +770,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1562,7 +1549,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,12 +1655,12 @@
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>144</v>
+      <c r="B13" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -1681,12 +1668,10 @@
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1789,11 +1774,8 @@
       <c r="C27" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{3100772C-B8C1-492D-979E-07B92419CCEB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
